--- a/presentations/info.xlsx
+++ b/presentations/info.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\widberg\kasm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\widberg\kasm\presentations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7A29E1-C334-406A-9E25-31B600B6AD94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B700E81C-2BEC-4E8D-9DC4-3050DC912E25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{42DE215C-7CBD-46E3-BD93-1E59E5F68E03}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="62">
   <si>
     <t>00</t>
   </si>
@@ -382,6 +382,48 @@
         <scheme val="minor"/>
       </rPr>
       <t>x</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>movs</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r0 = (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3F3F76"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)r1</t>
     </r>
   </si>
 </sst>
@@ -600,23 +642,23 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="2" xfId="9" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -959,10 +1001,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1157,110 +1199,110 @@
       <c r="BN1" s="1">
         <v>63</v>
       </c>
-      <c r="BO1" s="14" t="s">
+      <c r="BO1" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14">
-        <v>0</v>
-      </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9">
         <v>1</v>
       </c>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14">
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9">
         <v>2</v>
       </c>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14">
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9">
         <v>3</v>
       </c>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="14"/>
-      <c r="AD2" s="14"/>
-      <c r="AE2" s="14"/>
-      <c r="AF2" s="14"/>
-      <c r="AG2" s="14"/>
-      <c r="AH2" s="14"/>
-      <c r="AI2" s="14">
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="9"/>
+      <c r="AG2" s="9"/>
+      <c r="AH2" s="9"/>
+      <c r="AI2" s="9">
         <v>4</v>
       </c>
-      <c r="AJ2" s="14"/>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="14"/>
-      <c r="AM2" s="14"/>
-      <c r="AN2" s="14"/>
-      <c r="AO2" s="14"/>
-      <c r="AP2" s="14"/>
-      <c r="AQ2" s="14">
+      <c r="AJ2" s="9"/>
+      <c r="AK2" s="9"/>
+      <c r="AL2" s="9"/>
+      <c r="AM2" s="9"/>
+      <c r="AN2" s="9"/>
+      <c r="AO2" s="9"/>
+      <c r="AP2" s="9"/>
+      <c r="AQ2" s="9">
         <v>5</v>
       </c>
-      <c r="AR2" s="14"/>
-      <c r="AS2" s="14"/>
-      <c r="AT2" s="14"/>
-      <c r="AU2" s="14"/>
-      <c r="AV2" s="14"/>
-      <c r="AW2" s="14"/>
-      <c r="AX2" s="14"/>
-      <c r="AY2" s="14">
+      <c r="AR2" s="9"/>
+      <c r="AS2" s="9"/>
+      <c r="AT2" s="9"/>
+      <c r="AU2" s="9"/>
+      <c r="AV2" s="9"/>
+      <c r="AW2" s="9"/>
+      <c r="AX2" s="9"/>
+      <c r="AY2" s="9">
         <v>6</v>
       </c>
-      <c r="AZ2" s="14"/>
-      <c r="BA2" s="14"/>
-      <c r="BB2" s="14"/>
-      <c r="BC2" s="14"/>
-      <c r="BD2" s="14"/>
-      <c r="BE2" s="14"/>
-      <c r="BF2" s="14"/>
-      <c r="BG2" s="14">
+      <c r="AZ2" s="9"/>
+      <c r="BA2" s="9"/>
+      <c r="BB2" s="9"/>
+      <c r="BC2" s="9"/>
+      <c r="BD2" s="9"/>
+      <c r="BE2" s="9"/>
+      <c r="BF2" s="9"/>
+      <c r="BG2" s="9">
         <v>7</v>
       </c>
-      <c r="BH2" s="14"/>
-      <c r="BI2" s="14"/>
-      <c r="BJ2" s="14"/>
-      <c r="BK2" s="14"/>
-      <c r="BL2" s="14"/>
-      <c r="BM2" s="14"/>
-      <c r="BN2" s="14"/>
-      <c r="BO2" s="14"/>
+      <c r="BH2" s="9"/>
+      <c r="BI2" s="9"/>
+      <c r="BJ2" s="9"/>
+      <c r="BK2" s="9"/>
+      <c r="BL2" s="9"/>
+      <c r="BM2" s="9"/>
+      <c r="BN2" s="9"/>
+      <c r="BO2" s="9"/>
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
       <c r="K3" s="10" t="s">
         <v>11</v>
       </c>
@@ -1283,50 +1325,50 @@
       <c r="X3" s="10"/>
       <c r="Y3" s="10"/>
       <c r="Z3" s="2"/>
-      <c r="AA3" s="13" t="s">
+      <c r="AA3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AB3" s="13"/>
-      <c r="AC3" s="13"/>
-      <c r="AD3" s="13"/>
-      <c r="AE3" s="13"/>
-      <c r="AF3" s="13"/>
-      <c r="AG3" s="13"/>
-      <c r="AH3" s="13"/>
-      <c r="AI3" s="11" t="s">
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="14"/>
+      <c r="AE3" s="14"/>
+      <c r="AF3" s="14"/>
+      <c r="AG3" s="14"/>
+      <c r="AH3" s="14"/>
+      <c r="AI3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="AJ3" s="11"/>
-      <c r="AK3" s="11"/>
-      <c r="AL3" s="11"/>
-      <c r="AM3" s="11"/>
-      <c r="AN3" s="11"/>
-      <c r="AO3" s="11"/>
-      <c r="AP3" s="11"/>
-      <c r="AQ3" s="11"/>
-      <c r="AR3" s="11"/>
-      <c r="AS3" s="11"/>
-      <c r="AT3" s="11"/>
-      <c r="AU3" s="11"/>
-      <c r="AV3" s="11"/>
-      <c r="AW3" s="11"/>
-      <c r="AX3" s="11"/>
-      <c r="AY3" s="11"/>
-      <c r="AZ3" s="11"/>
-      <c r="BA3" s="11"/>
-      <c r="BB3" s="11"/>
-      <c r="BC3" s="11"/>
-      <c r="BD3" s="11"/>
-      <c r="BE3" s="11"/>
-      <c r="BF3" s="11"/>
-      <c r="BG3" s="11"/>
-      <c r="BH3" s="11"/>
-      <c r="BI3" s="11"/>
-      <c r="BJ3" s="11"/>
-      <c r="BK3" s="11"/>
-      <c r="BL3" s="11"/>
-      <c r="BM3" s="11"/>
-      <c r="BN3" s="11"/>
+      <c r="AJ3" s="12"/>
+      <c r="AK3" s="12"/>
+      <c r="AL3" s="12"/>
+      <c r="AM3" s="12"/>
+      <c r="AN3" s="12"/>
+      <c r="AO3" s="12"/>
+      <c r="AP3" s="12"/>
+      <c r="AQ3" s="12"/>
+      <c r="AR3" s="12"/>
+      <c r="AS3" s="12"/>
+      <c r="AT3" s="12"/>
+      <c r="AU3" s="12"/>
+      <c r="AV3" s="12"/>
+      <c r="AW3" s="12"/>
+      <c r="AX3" s="12"/>
+      <c r="AY3" s="12"/>
+      <c r="AZ3" s="12"/>
+      <c r="BA3" s="12"/>
+      <c r="BB3" s="12"/>
+      <c r="BC3" s="12"/>
+      <c r="BD3" s="12"/>
+      <c r="BE3" s="12"/>
+      <c r="BF3" s="12"/>
+      <c r="BG3" s="12"/>
+      <c r="BH3" s="12"/>
+      <c r="BI3" s="12"/>
+      <c r="BJ3" s="12"/>
+      <c r="BK3" s="12"/>
+      <c r="BL3" s="12"/>
+      <c r="BM3" s="12"/>
+      <c r="BN3" s="12"/>
       <c r="BO3" s="6"/>
     </row>
     <row r="4" spans="1:67" x14ac:dyDescent="0.25">
@@ -1334,16 +1376,16 @@
       <c r="B4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
       <c r="K4" s="10" t="s">
         <v>11</v>
       </c>
@@ -1351,11 +1393,11 @@
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
       <c r="U4" s="10" t="s">
         <v>13</v>
       </c>
@@ -1364,50 +1406,50 @@
       <c r="X4" s="10"/>
       <c r="Y4" s="10"/>
       <c r="Z4" s="2"/>
-      <c r="AA4" s="13" t="s">
+      <c r="AA4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AB4" s="13"/>
-      <c r="AC4" s="13"/>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="13"/>
-      <c r="AF4" s="13"/>
-      <c r="AG4" s="13"/>
-      <c r="AH4" s="13"/>
-      <c r="AI4" s="11" t="s">
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="14"/>
+      <c r="AG4" s="14"/>
+      <c r="AH4" s="14"/>
+      <c r="AI4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="AJ4" s="11"/>
-      <c r="AK4" s="11"/>
-      <c r="AL4" s="11"/>
-      <c r="AM4" s="11"/>
-      <c r="AN4" s="11"/>
-      <c r="AO4" s="11"/>
-      <c r="AP4" s="11"/>
-      <c r="AQ4" s="11"/>
-      <c r="AR4" s="11"/>
-      <c r="AS4" s="11"/>
-      <c r="AT4" s="11"/>
-      <c r="AU4" s="11"/>
-      <c r="AV4" s="11"/>
-      <c r="AW4" s="11"/>
-      <c r="AX4" s="11"/>
-      <c r="AY4" s="11"/>
-      <c r="AZ4" s="11"/>
-      <c r="BA4" s="11"/>
-      <c r="BB4" s="11"/>
-      <c r="BC4" s="11"/>
-      <c r="BD4" s="11"/>
-      <c r="BE4" s="11"/>
-      <c r="BF4" s="11"/>
-      <c r="BG4" s="11"/>
-      <c r="BH4" s="11"/>
-      <c r="BI4" s="11"/>
-      <c r="BJ4" s="11"/>
-      <c r="BK4" s="11"/>
-      <c r="BL4" s="11"/>
-      <c r="BM4" s="11"/>
-      <c r="BN4" s="11"/>
+      <c r="AJ4" s="12"/>
+      <c r="AK4" s="12"/>
+      <c r="AL4" s="12"/>
+      <c r="AM4" s="12"/>
+      <c r="AN4" s="12"/>
+      <c r="AO4" s="12"/>
+      <c r="AP4" s="12"/>
+      <c r="AQ4" s="12"/>
+      <c r="AR4" s="12"/>
+      <c r="AS4" s="12"/>
+      <c r="AT4" s="12"/>
+      <c r="AU4" s="12"/>
+      <c r="AV4" s="12"/>
+      <c r="AW4" s="12"/>
+      <c r="AX4" s="12"/>
+      <c r="AY4" s="12"/>
+      <c r="AZ4" s="12"/>
+      <c r="BA4" s="12"/>
+      <c r="BB4" s="12"/>
+      <c r="BC4" s="12"/>
+      <c r="BD4" s="12"/>
+      <c r="BE4" s="12"/>
+      <c r="BF4" s="12"/>
+      <c r="BG4" s="12"/>
+      <c r="BH4" s="12"/>
+      <c r="BI4" s="12"/>
+      <c r="BJ4" s="12"/>
+      <c r="BK4" s="12"/>
+      <c r="BL4" s="12"/>
+      <c r="BM4" s="12"/>
+      <c r="BN4" s="12"/>
       <c r="BO4" s="6"/>
     </row>
     <row r="5" spans="1:67" x14ac:dyDescent="0.25">
@@ -1415,16 +1457,16 @@
       <c r="B5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
       <c r="K5" s="10" t="s">
         <v>11</v>
       </c>
@@ -1439,52 +1481,52 @@
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="12"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="12"/>
-      <c r="AH5" s="12"/>
-      <c r="AI5" s="12"/>
-      <c r="AJ5" s="12"/>
-      <c r="AK5" s="12"/>
-      <c r="AL5" s="12"/>
-      <c r="AM5" s="12"/>
-      <c r="AN5" s="12"/>
-      <c r="AO5" s="12"/>
-      <c r="AP5" s="12"/>
-      <c r="AQ5" s="12"/>
-      <c r="AR5" s="12"/>
-      <c r="AS5" s="12"/>
-      <c r="AT5" s="12"/>
-      <c r="AU5" s="12"/>
-      <c r="AV5" s="12"/>
-      <c r="AW5" s="12"/>
-      <c r="AX5" s="12"/>
-      <c r="AY5" s="12"/>
-      <c r="AZ5" s="12"/>
-      <c r="BA5" s="12"/>
-      <c r="BB5" s="12"/>
-      <c r="BC5" s="12"/>
-      <c r="BD5" s="12"/>
-      <c r="BE5" s="12"/>
-      <c r="BF5" s="12"/>
-      <c r="BG5" s="12"/>
-      <c r="BH5" s="12"/>
-      <c r="BI5" s="12"/>
-      <c r="BJ5" s="12"/>
-      <c r="BK5" s="12"/>
-      <c r="BL5" s="12"/>
-      <c r="BM5" s="12"/>
-      <c r="BN5" s="12"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="11"/>
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="11"/>
+      <c r="AJ5" s="11"/>
+      <c r="AK5" s="11"/>
+      <c r="AL5" s="11"/>
+      <c r="AM5" s="11"/>
+      <c r="AN5" s="11"/>
+      <c r="AO5" s="11"/>
+      <c r="AP5" s="11"/>
+      <c r="AQ5" s="11"/>
+      <c r="AR5" s="11"/>
+      <c r="AS5" s="11"/>
+      <c r="AT5" s="11"/>
+      <c r="AU5" s="11"/>
+      <c r="AV5" s="11"/>
+      <c r="AW5" s="11"/>
+      <c r="AX5" s="11"/>
+      <c r="AY5" s="11"/>
+      <c r="AZ5" s="11"/>
+      <c r="BA5" s="11"/>
+      <c r="BB5" s="11"/>
+      <c r="BC5" s="11"/>
+      <c r="BD5" s="11"/>
+      <c r="BE5" s="11"/>
+      <c r="BF5" s="11"/>
+      <c r="BG5" s="11"/>
+      <c r="BH5" s="11"/>
+      <c r="BI5" s="11"/>
+      <c r="BJ5" s="11"/>
+      <c r="BK5" s="11"/>
+      <c r="BL5" s="11"/>
+      <c r="BM5" s="11"/>
+      <c r="BN5" s="11"/>
       <c r="BO5" s="6"/>
     </row>
     <row r="6" spans="1:67" x14ac:dyDescent="0.25">
@@ -1492,16 +1534,16 @@
       <c r="B6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
       <c r="K6" s="10" t="s">
         <v>11</v>
       </c>
@@ -1509,59 +1551,59 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="12"/>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="12"/>
-      <c r="AH6" s="12"/>
-      <c r="AI6" s="11" t="s">
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="AJ6" s="11"/>
-      <c r="AK6" s="11"/>
-      <c r="AL6" s="11"/>
-      <c r="AM6" s="11"/>
-      <c r="AN6" s="11"/>
-      <c r="AO6" s="11"/>
-      <c r="AP6" s="11"/>
-      <c r="AQ6" s="11"/>
-      <c r="AR6" s="11"/>
-      <c r="AS6" s="11"/>
-      <c r="AT6" s="11"/>
-      <c r="AU6" s="11"/>
-      <c r="AV6" s="11"/>
-      <c r="AW6" s="11"/>
-      <c r="AX6" s="11"/>
-      <c r="AY6" s="11"/>
-      <c r="AZ6" s="11"/>
-      <c r="BA6" s="11"/>
-      <c r="BB6" s="11"/>
-      <c r="BC6" s="11"/>
-      <c r="BD6" s="11"/>
-      <c r="BE6" s="11"/>
-      <c r="BF6" s="11"/>
-      <c r="BG6" s="11"/>
-      <c r="BH6" s="11"/>
-      <c r="BI6" s="11"/>
-      <c r="BJ6" s="11"/>
-      <c r="BK6" s="11"/>
-      <c r="BL6" s="11"/>
-      <c r="BM6" s="11"/>
-      <c r="BN6" s="11"/>
+      <c r="AJ6" s="12"/>
+      <c r="AK6" s="12"/>
+      <c r="AL6" s="12"/>
+      <c r="AM6" s="12"/>
+      <c r="AN6" s="12"/>
+      <c r="AO6" s="12"/>
+      <c r="AP6" s="12"/>
+      <c r="AQ6" s="12"/>
+      <c r="AR6" s="12"/>
+      <c r="AS6" s="12"/>
+      <c r="AT6" s="12"/>
+      <c r="AU6" s="12"/>
+      <c r="AV6" s="12"/>
+      <c r="AW6" s="12"/>
+      <c r="AX6" s="12"/>
+      <c r="AY6" s="12"/>
+      <c r="AZ6" s="12"/>
+      <c r="BA6" s="12"/>
+      <c r="BB6" s="12"/>
+      <c r="BC6" s="12"/>
+      <c r="BD6" s="12"/>
+      <c r="BE6" s="12"/>
+      <c r="BF6" s="12"/>
+      <c r="BG6" s="12"/>
+      <c r="BH6" s="12"/>
+      <c r="BI6" s="12"/>
+      <c r="BJ6" s="12"/>
+      <c r="BK6" s="12"/>
+      <c r="BL6" s="12"/>
+      <c r="BM6" s="12"/>
+      <c r="BN6" s="12"/>
       <c r="BO6" s="6"/>
     </row>
     <row r="7" spans="1:67" x14ac:dyDescent="0.25">
@@ -1569,16 +1611,16 @@
       <c r="B7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
       <c r="K7" s="10" t="s">
         <v>11</v>
       </c>
@@ -1593,54 +1635,54 @@
       <c r="R7" s="10"/>
       <c r="S7" s="10"/>
       <c r="T7" s="10"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="12"/>
-      <c r="AB7" s="12"/>
-      <c r="AC7" s="12"/>
-      <c r="AD7" s="12"/>
-      <c r="AE7" s="12"/>
-      <c r="AF7" s="12"/>
-      <c r="AG7" s="12"/>
-      <c r="AH7" s="12"/>
-      <c r="AI7" s="11" t="s">
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="AJ7" s="11"/>
-      <c r="AK7" s="11"/>
-      <c r="AL7" s="11"/>
-      <c r="AM7" s="11"/>
-      <c r="AN7" s="11"/>
-      <c r="AO7" s="11"/>
-      <c r="AP7" s="11"/>
-      <c r="AQ7" s="11"/>
-      <c r="AR7" s="11"/>
-      <c r="AS7" s="11"/>
-      <c r="AT7" s="11"/>
-      <c r="AU7" s="11"/>
-      <c r="AV7" s="11"/>
-      <c r="AW7" s="11"/>
-      <c r="AX7" s="11"/>
-      <c r="AY7" s="11"/>
-      <c r="AZ7" s="11"/>
-      <c r="BA7" s="11"/>
-      <c r="BB7" s="11"/>
-      <c r="BC7" s="11"/>
-      <c r="BD7" s="11"/>
-      <c r="BE7" s="11"/>
-      <c r="BF7" s="11"/>
-      <c r="BG7" s="11"/>
-      <c r="BH7" s="11"/>
-      <c r="BI7" s="11"/>
-      <c r="BJ7" s="11"/>
-      <c r="BK7" s="11"/>
-      <c r="BL7" s="11"/>
-      <c r="BM7" s="11"/>
-      <c r="BN7" s="11"/>
+      <c r="AJ7" s="12"/>
+      <c r="AK7" s="12"/>
+      <c r="AL7" s="12"/>
+      <c r="AM7" s="12"/>
+      <c r="AN7" s="12"/>
+      <c r="AO7" s="12"/>
+      <c r="AP7" s="12"/>
+      <c r="AQ7" s="12"/>
+      <c r="AR7" s="12"/>
+      <c r="AS7" s="12"/>
+      <c r="AT7" s="12"/>
+      <c r="AU7" s="12"/>
+      <c r="AV7" s="12"/>
+      <c r="AW7" s="12"/>
+      <c r="AX7" s="12"/>
+      <c r="AY7" s="12"/>
+      <c r="AZ7" s="12"/>
+      <c r="BA7" s="12"/>
+      <c r="BB7" s="12"/>
+      <c r="BC7" s="12"/>
+      <c r="BD7" s="12"/>
+      <c r="BE7" s="12"/>
+      <c r="BF7" s="12"/>
+      <c r="BG7" s="12"/>
+      <c r="BH7" s="12"/>
+      <c r="BI7" s="12"/>
+      <c r="BJ7" s="12"/>
+      <c r="BK7" s="12"/>
+      <c r="BL7" s="12"/>
+      <c r="BM7" s="12"/>
+      <c r="BN7" s="12"/>
       <c r="BO7" s="6"/>
     </row>
     <row r="8" spans="1:67" x14ac:dyDescent="0.25">
@@ -1648,16 +1690,16 @@
       <c r="B8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
       <c r="K8" s="10" t="s">
         <v>11</v>
       </c>
@@ -1665,57 +1707,57 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="12"/>
-      <c r="AD8" s="12"/>
-      <c r="AE8" s="12"/>
-      <c r="AF8" s="12"/>
-      <c r="AG8" s="12"/>
-      <c r="AH8" s="12"/>
-      <c r="AI8" s="12"/>
-      <c r="AJ8" s="12"/>
-      <c r="AK8" s="12"/>
-      <c r="AL8" s="12"/>
-      <c r="AM8" s="12"/>
-      <c r="AN8" s="12"/>
-      <c r="AO8" s="12"/>
-      <c r="AP8" s="12"/>
-      <c r="AQ8" s="12"/>
-      <c r="AR8" s="12"/>
-      <c r="AS8" s="12"/>
-      <c r="AT8" s="12"/>
-      <c r="AU8" s="12"/>
-      <c r="AV8" s="12"/>
-      <c r="AW8" s="12"/>
-      <c r="AX8" s="12"/>
-      <c r="AY8" s="12"/>
-      <c r="AZ8" s="12"/>
-      <c r="BA8" s="12"/>
-      <c r="BB8" s="12"/>
-      <c r="BC8" s="12"/>
-      <c r="BD8" s="12"/>
-      <c r="BE8" s="12"/>
-      <c r="BF8" s="12"/>
-      <c r="BG8" s="12"/>
-      <c r="BH8" s="12"/>
-      <c r="BI8" s="12"/>
-      <c r="BJ8" s="12"/>
-      <c r="BK8" s="12"/>
-      <c r="BL8" s="12"/>
-      <c r="BM8" s="12"/>
-      <c r="BN8" s="12"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
+      <c r="AG8" s="11"/>
+      <c r="AH8" s="11"/>
+      <c r="AI8" s="11"/>
+      <c r="AJ8" s="11"/>
+      <c r="AK8" s="11"/>
+      <c r="AL8" s="11"/>
+      <c r="AM8" s="11"/>
+      <c r="AN8" s="11"/>
+      <c r="AO8" s="11"/>
+      <c r="AP8" s="11"/>
+      <c r="AQ8" s="11"/>
+      <c r="AR8" s="11"/>
+      <c r="AS8" s="11"/>
+      <c r="AT8" s="11"/>
+      <c r="AU8" s="11"/>
+      <c r="AV8" s="11"/>
+      <c r="AW8" s="11"/>
+      <c r="AX8" s="11"/>
+      <c r="AY8" s="11"/>
+      <c r="AZ8" s="11"/>
+      <c r="BA8" s="11"/>
+      <c r="BB8" s="11"/>
+      <c r="BC8" s="11"/>
+      <c r="BD8" s="11"/>
+      <c r="BE8" s="11"/>
+      <c r="BF8" s="11"/>
+      <c r="BG8" s="11"/>
+      <c r="BH8" s="11"/>
+      <c r="BI8" s="11"/>
+      <c r="BJ8" s="11"/>
+      <c r="BK8" s="11"/>
+      <c r="BL8" s="11"/>
+      <c r="BM8" s="11"/>
+      <c r="BN8" s="11"/>
       <c r="BO8" s="6"/>
     </row>
     <row r="9" spans="1:67" x14ac:dyDescent="0.25">
@@ -1723,16 +1765,16 @@
       <c r="B9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
       <c r="K9" s="15" t="s">
         <v>24</v>
       </c>
@@ -1795,6 +1837,32 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="AI7:BN7"/>
+    <mergeCell ref="AI6:BN6"/>
+    <mergeCell ref="U7:AH7"/>
+    <mergeCell ref="P6:AH6"/>
+    <mergeCell ref="P8:BN8"/>
+    <mergeCell ref="K9:BN9"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="K2:R2"/>
+    <mergeCell ref="S2:Z2"/>
+    <mergeCell ref="U5:BN5"/>
+    <mergeCell ref="AA3:AH3"/>
+    <mergeCell ref="AA4:AH4"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="P5:T5"/>
+    <mergeCell ref="C4:J4"/>
     <mergeCell ref="BO1:BO2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -1809,33 +1877,7 @@
     <mergeCell ref="AQ2:AX2"/>
     <mergeCell ref="C3:J3"/>
     <mergeCell ref="AY2:BF2"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="P7:T7"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="K2:R2"/>
-    <mergeCell ref="S2:Z2"/>
     <mergeCell ref="AA2:AH2"/>
-    <mergeCell ref="U5:BN5"/>
-    <mergeCell ref="AA3:AH3"/>
-    <mergeCell ref="AA4:AH4"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="K5:O5"/>
-    <mergeCell ref="P5:T5"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="AI7:BN7"/>
-    <mergeCell ref="AI6:BN6"/>
-    <mergeCell ref="U7:AH7"/>
-    <mergeCell ref="P6:AH6"/>
-    <mergeCell ref="P8:BN8"/>
-    <mergeCell ref="K9:BN9"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C8:J8"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1848,7 +1890,7 @@
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2090,12 +2132,17 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="A18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="D18" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2281,7 +2328,7 @@
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D39" s="8">
         <f>SUM(D2:D38)</f>
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
